--- a/data/Test_Product_Line_template.xlsx
+++ b/data/Test_Product_Line_template.xlsx
@@ -16,7 +16,7 @@
     <t>Test Product Line - Production Schedule</t>
   </si>
   <si>
-    <t>WO ID</t>
+    <t>工单</t>
   </si>
   <si>
     <t>PN</t>
